--- a/xlsx/HlaseniDIS13_00150022329_202001 - test report DIS13.xlsx
+++ b/xlsx/HlaseniDIS13_00150022329_202001 - test report DIS13.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rukszto.l\Documents\SUKL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fajt.v\Desktop\DIS-13 and REG-13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D4174E9-9C54-4DB0-938E-8CF501C84C42}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B11FC0F-5F79-40A6-BC86-D39046F6020E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Základní údaje" sheetId="1" r:id="rId1"/>
@@ -1335,10 +1335,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <customProperties>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId2"/>
-  </customProperties>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1576,10 +1573,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <customProperties>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId2"/>
-  </customProperties>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1597,10 +1591,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <customProperties>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId2"/>
-  </customProperties>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1644,9 +1635,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <customProperties>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId2"/>
-  </customProperties>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>